--- a/Code/Results/Cases/Case_4_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9839364968713621</v>
+        <v>1.027032374748685</v>
       </c>
       <c r="D2">
-        <v>1.005510934620556</v>
+        <v>1.030510707607442</v>
       </c>
       <c r="E2">
-        <v>0.9922248036712604</v>
+        <v>1.030662890396634</v>
       </c>
       <c r="F2">
-        <v>0.9938179111719655</v>
+        <v>1.036818059722732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039076663969182</v>
+        <v>1.032200491400207</v>
       </c>
       <c r="J2">
-        <v>1.006608514672703</v>
+        <v>1.032192506076122</v>
       </c>
       <c r="K2">
-        <v>1.016894023597987</v>
+        <v>1.033321508912322</v>
       </c>
       <c r="L2">
-        <v>1.003793532764068</v>
+        <v>1.033473251036849</v>
       </c>
       <c r="M2">
-        <v>1.005364049541671</v>
+        <v>1.039610715061926</v>
       </c>
       <c r="N2">
-        <v>1.005314782498088</v>
+        <v>1.014615771517216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9909603552282742</v>
+        <v>1.028411716140358</v>
       </c>
       <c r="D3">
-        <v>1.010668653557822</v>
+        <v>1.031522547782159</v>
       </c>
       <c r="E3">
-        <v>0.9987090488071777</v>
+        <v>1.031990603606696</v>
       </c>
       <c r="F3">
-        <v>1.001272125227883</v>
+        <v>1.03834280176057</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041425400392792</v>
+        <v>1.032550126842537</v>
       </c>
       <c r="J3">
-        <v>1.011700520706939</v>
+        <v>1.033209651014153</v>
       </c>
       <c r="K3">
-        <v>1.021166822882351</v>
+        <v>1.034141172593327</v>
       </c>
       <c r="L3">
-        <v>1.009358474287744</v>
+        <v>1.034607972194407</v>
       </c>
       <c r="M3">
-        <v>1.011888754810854</v>
+        <v>1.040943242613162</v>
       </c>
       <c r="N3">
-        <v>1.007104276393532</v>
+        <v>1.014964502449705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9953689792584929</v>
+        <v>1.029302875941649</v>
       </c>
       <c r="D4">
-        <v>1.013907588355484</v>
+        <v>1.032175871949847</v>
       </c>
       <c r="E4">
-        <v>1.002784996238041</v>
+        <v>1.032848746489432</v>
       </c>
       <c r="F4">
-        <v>1.005953763659353</v>
+        <v>1.0393281412644</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042883775485342</v>
+        <v>1.032774040350305</v>
       </c>
       <c r="J4">
-        <v>1.014891893478585</v>
+        <v>1.033866050625694</v>
       </c>
       <c r="K4">
-        <v>1.02384100952472</v>
+        <v>1.034669546099249</v>
       </c>
       <c r="L4">
-        <v>1.012849924622435</v>
+        <v>1.035340706593121</v>
       </c>
       <c r="M4">
-        <v>1.015980859198826</v>
+        <v>1.041803718468103</v>
       </c>
       <c r="N4">
-        <v>1.008224546336302</v>
+        <v>1.015189253489353</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9971915346172499</v>
+        <v>1.029677198577296</v>
       </c>
       <c r="D5">
-        <v>1.015246859609602</v>
+        <v>1.032450196806962</v>
       </c>
       <c r="E5">
-        <v>1.004471396770537</v>
+        <v>1.033209281246208</v>
       </c>
       <c r="F5">
-        <v>1.007889884093952</v>
+        <v>1.039742080887668</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043482808837453</v>
+        <v>1.032867618955144</v>
       </c>
       <c r="J5">
-        <v>1.016210043041165</v>
+        <v>1.034141583755264</v>
       </c>
       <c r="K5">
-        <v>1.024944610634278</v>
+        <v>1.034891197992805</v>
       </c>
       <c r="L5">
-        <v>1.014292900180444</v>
+        <v>1.03564839228731</v>
       </c>
       <c r="M5">
-        <v>1.017671773415939</v>
+        <v>1.042165047789203</v>
       </c>
       <c r="N5">
-        <v>1.008686929868272</v>
+        <v>1.015283524492885</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9974957912315682</v>
+        <v>1.029740030352725</v>
       </c>
       <c r="D6">
-        <v>1.015470449846538</v>
+        <v>1.032496237754067</v>
       </c>
       <c r="E6">
-        <v>1.004753002789483</v>
+        <v>1.033269803369626</v>
       </c>
       <c r="F6">
-        <v>1.008213140440896</v>
+        <v>1.039811565954142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043582581739933</v>
+        <v>1.032883298740819</v>
       </c>
       <c r="J6">
-        <v>1.016430022974287</v>
+        <v>1.0341878226376</v>
       </c>
       <c r="K6">
-        <v>1.025128729826563</v>
+        <v>1.034928386486132</v>
       </c>
       <c r="L6">
-        <v>1.01453376380979</v>
+        <v>1.035700033338461</v>
       </c>
       <c r="M6">
-        <v>1.017954006968472</v>
+        <v>1.04222569243398</v>
       </c>
       <c r="N6">
-        <v>1.008764075098328</v>
+        <v>1.015299340481477</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9953934512099822</v>
+        <v>1.029307878912507</v>
       </c>
       <c r="D7">
-        <v>1.013925570183211</v>
+        <v>1.032179538794666</v>
       </c>
       <c r="E7">
-        <v>1.002807634641435</v>
+        <v>1.032853564863924</v>
       </c>
       <c r="F7">
-        <v>1.005979757708047</v>
+        <v>1.039333673504584</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042891834272599</v>
+        <v>1.03277529292941</v>
       </c>
       <c r="J7">
-        <v>1.014909597403991</v>
+        <v>1.033869733947049</v>
       </c>
       <c r="K7">
-        <v>1.023855835605397</v>
+        <v>1.03467250969021</v>
       </c>
       <c r="L7">
-        <v>1.012869301570065</v>
+        <v>1.035344819296848</v>
       </c>
       <c r="M7">
-        <v>1.016003566717241</v>
+        <v>1.041808548190026</v>
       </c>
       <c r="N7">
-        <v>1.008230757882841</v>
+        <v>1.015190513983552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9863395911326207</v>
+        <v>1.027498816248034</v>
       </c>
       <c r="D8">
-        <v>1.007275145661918</v>
+        <v>1.030852956583146</v>
       </c>
       <c r="E8">
-        <v>0.9944419639639566</v>
+        <v>1.031111802607375</v>
       </c>
       <c r="F8">
-        <v>0.9963676359509095</v>
+        <v>1.037333620775637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039883546355655</v>
+        <v>1.032319134585849</v>
       </c>
       <c r="J8">
-        <v>1.008351612561632</v>
+        <v>1.03253662226804</v>
       </c>
       <c r="K8">
-        <v>1.018357464075328</v>
+        <v>1.03359893500338</v>
       </c>
       <c r="L8">
-        <v>1.005697752478559</v>
+        <v>1.033857050048845</v>
       </c>
       <c r="M8">
-        <v>1.007597035768579</v>
+        <v>1.040061416901018</v>
       </c>
       <c r="N8">
-        <v>1.005927620763127</v>
+        <v>1.014733814220308</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9692522400824217</v>
+        <v>1.024300275656996</v>
       </c>
       <c r="D9">
-        <v>0.9947428871531345</v>
+        <v>1.028504436737592</v>
       </c>
       <c r="E9">
-        <v>0.9787059347909585</v>
+        <v>1.028034882009094</v>
       </c>
       <c r="F9">
-        <v>0.9782499696044747</v>
+        <v>1.033799223562198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034080564035299</v>
+        <v>1.031497447562037</v>
       </c>
       <c r="J9">
-        <v>0.9959395411297091</v>
+        <v>1.030173824139596</v>
       </c>
       <c r="K9">
-        <v>1.007921837102454</v>
+        <v>1.031691661461138</v>
       </c>
       <c r="L9">
-        <v>0.9921542071680662</v>
+        <v>1.031223663848483</v>
       </c>
       <c r="M9">
-        <v>0.991706066270035</v>
+        <v>1.036968997308809</v>
       </c>
       <c r="N9">
-        <v>1.001559126430438</v>
+        <v>1.013922085096372</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9569574151609442</v>
+        <v>1.022160304355713</v>
       </c>
       <c r="D10">
-        <v>0.9857479038214668</v>
+        <v>1.026931194708914</v>
       </c>
       <c r="E10">
-        <v>0.9674249633580616</v>
+        <v>1.025978084206201</v>
       </c>
       <c r="F10">
-        <v>0.9652292620690311</v>
+        <v>1.031435755634544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029824564720659</v>
+        <v>1.030937524353332</v>
       </c>
       <c r="J10">
-        <v>0.986989346143604</v>
+        <v>1.028589147148303</v>
       </c>
       <c r="K10">
-        <v>1.00037934214617</v>
+        <v>1.030409511081577</v>
       </c>
       <c r="L10">
-        <v>0.9824083785057512</v>
+        <v>1.029459876251819</v>
       </c>
       <c r="M10">
-        <v>0.9802560340078685</v>
+        <v>1.034897741372589</v>
       </c>
       <c r="N10">
-        <v>0.9984041538231703</v>
+        <v>1.013376158829105</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9513821814004352</v>
+        <v>1.021231780648191</v>
       </c>
       <c r="D11">
-        <v>0.9816767021638</v>
+        <v>1.026248118883846</v>
       </c>
       <c r="E11">
-        <v>0.9623208268863301</v>
+        <v>1.025086084822186</v>
       </c>
       <c r="F11">
-        <v>0.959328404672718</v>
+        <v>1.030410539283866</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027876717351798</v>
+        <v>1.03069216842604</v>
       </c>
       <c r="J11">
-        <v>0.9829273543093964</v>
+        <v>1.027900653986625</v>
       </c>
       <c r="K11">
-        <v>0.9969526441986455</v>
+        <v>1.029851754805388</v>
       </c>
       <c r="L11">
-        <v>0.9779901051307189</v>
+        <v>1.028694125296</v>
       </c>
       <c r="M11">
-        <v>0.9750603671955822</v>
+        <v>1.033998488339301</v>
       </c>
       <c r="N11">
-        <v>0.9969714984936482</v>
+        <v>1.013138614152689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9492698213558372</v>
+        <v>1.020886592234334</v>
       </c>
       <c r="D12">
-        <v>0.9801355754021746</v>
+        <v>1.025994111417604</v>
       </c>
       <c r="E12">
-        <v>0.9603888067274494</v>
+        <v>1.024754540830575</v>
       </c>
       <c r="F12">
-        <v>0.9570931872462293</v>
+        <v>1.030029446259404</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02713613688464</v>
+        <v>1.030600593516523</v>
       </c>
       <c r="J12">
-        <v>0.9813879350747049</v>
+        <v>1.027644563310645</v>
       </c>
       <c r="K12">
-        <v>0.9956535050978853</v>
+        <v>1.029644187882219</v>
       </c>
       <c r="L12">
-        <v>0.9763163855883594</v>
+        <v>1.028409382029356</v>
       </c>
       <c r="M12">
-        <v>0.9730913176184823</v>
+        <v>1.033664099542775</v>
       </c>
       <c r="N12">
-        <v>0.996428465030723</v>
+        <v>1.013050204161133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9497248710500784</v>
+        <v>1.020960649719135</v>
       </c>
       <c r="D13">
-        <v>0.9804675023975707</v>
+        <v>1.026048609746468</v>
       </c>
       <c r="E13">
-        <v>0.9608049212452265</v>
+        <v>1.024825668008498</v>
       </c>
       <c r="F13">
-        <v>0.9575746801882694</v>
+        <v>1.030111204909697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027295788697823</v>
+        <v>1.03062025653863</v>
       </c>
       <c r="J13">
-        <v>0.9817195765993455</v>
+        <v>1.027699511722198</v>
       </c>
       <c r="K13">
-        <v>0.9959334033227449</v>
+        <v>1.029688729473152</v>
       </c>
       <c r="L13">
-        <v>0.9766769271364166</v>
+        <v>1.028470474516709</v>
       </c>
       <c r="M13">
-        <v>0.9735155171757442</v>
+        <v>1.033735843770758</v>
       </c>
       <c r="N13">
-        <v>0.9965454554843571</v>
+        <v>1.013069176367132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9512084421402393</v>
+        <v>1.021203253295035</v>
       </c>
       <c r="D14">
-        <v>0.9815499168074707</v>
+        <v>1.026227128340455</v>
       </c>
       <c r="E14">
-        <v>0.9621618820121151</v>
+        <v>1.025058683730599</v>
       </c>
       <c r="F14">
-        <v>0.9591445501765488</v>
+        <v>1.030379043819464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027815856912011</v>
+        <v>1.03068460777997</v>
       </c>
       <c r="J14">
-        <v>0.982800746215448</v>
+        <v>1.027879492697848</v>
       </c>
       <c r="K14">
-        <v>0.9968458072114887</v>
+        <v>1.029834605268322</v>
       </c>
       <c r="L14">
-        <v>0.9778524369561989</v>
+        <v>1.028670594671951</v>
       </c>
       <c r="M14">
-        <v>0.9748984250534888</v>
+        <v>1.033970855172268</v>
       </c>
       <c r="N14">
-        <v>0.996926838701894</v>
+        <v>1.013131309742169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9521169053080454</v>
+        <v>1.021352690262525</v>
       </c>
       <c r="D15">
-        <v>0.9822129207939569</v>
+        <v>1.026337081943357</v>
       </c>
       <c r="E15">
-        <v>0.9629930630069085</v>
+        <v>1.025202223628722</v>
       </c>
       <c r="F15">
-        <v>0.9601059256343392</v>
+        <v>1.030544030578657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028133985478403</v>
+        <v>1.030724198490659</v>
       </c>
       <c r="J15">
-        <v>0.9834627502194438</v>
+        <v>1.027990337889125</v>
       </c>
       <c r="K15">
-        <v>0.9974044133940784</v>
+        <v>1.029924432165906</v>
       </c>
       <c r="L15">
-        <v>0.9785723009312177</v>
+        <v>1.028793854146496</v>
       </c>
       <c r="M15">
-        <v>0.9757451822261022</v>
+        <v>1.034115604696799</v>
       </c>
       <c r="N15">
-        <v>0.9971603510813843</v>
+        <v>1.013169568879321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9573218229021297</v>
+        <v>1.022221886694671</v>
       </c>
       <c r="D16">
-        <v>0.9860141825422395</v>
+        <v>1.026976488806449</v>
       </c>
       <c r="E16">
-        <v>0.9677588257177734</v>
+        <v>1.026037253377013</v>
       </c>
       <c r="F16">
-        <v>0.9656150250858783</v>
+        <v>1.031503756797426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02995151881137</v>
+        <v>1.030953746409107</v>
       </c>
       <c r="J16">
-        <v>0.9872547840667175</v>
+        <v>1.028634790877418</v>
       </c>
       <c r="K16">
-        <v>1.000603196033964</v>
+        <v>1.03044647287549</v>
       </c>
       <c r="L16">
-        <v>0.9826971977871222</v>
+        <v>1.029510653574986</v>
       </c>
       <c r="M16">
-        <v>0.9805955621061102</v>
+        <v>1.034957370911494</v>
       </c>
       <c r="N16">
-        <v>0.9984977597078281</v>
+        <v>1.013391899399435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9605169469060463</v>
+        <v>1.022766596074864</v>
       </c>
       <c r="D17">
-        <v>0.9883498025594809</v>
+        <v>1.027377072935709</v>
       </c>
       <c r="E17">
-        <v>0.9706874232479266</v>
+        <v>1.026560668116827</v>
       </c>
       <c r="F17">
-        <v>0.9689977891247188</v>
+        <v>1.032105274528832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031062644973294</v>
+        <v>1.031096956272736</v>
       </c>
       <c r="J17">
-        <v>0.9895817684003682</v>
+        <v>1.029038414882822</v>
       </c>
       <c r="K17">
-        <v>1.002565232717772</v>
+        <v>1.030773242349507</v>
       </c>
       <c r="L17">
-        <v>0.9852296989646034</v>
+        <v>1.029959738153864</v>
       </c>
       <c r="M17">
-        <v>0.9835721486002259</v>
+        <v>1.035484744467644</v>
       </c>
       <c r="N17">
-        <v>0.9993182786191652</v>
+        <v>1.013531050970865</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9623566168077633</v>
+        <v>1.023084132841683</v>
       </c>
       <c r="D18">
-        <v>0.9896952970306589</v>
+        <v>1.027610548531292</v>
       </c>
       <c r="E18">
-        <v>0.9723746893969577</v>
+        <v>1.026865833180001</v>
       </c>
       <c r="F18">
-        <v>0.9709458303450151</v>
+        <v>1.032455954717001</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031700713601605</v>
+        <v>1.031180207981838</v>
       </c>
       <c r="J18">
-        <v>0.9909212570384853</v>
+        <v>1.029273618697437</v>
       </c>
       <c r="K18">
-        <v>1.003694305787487</v>
+        <v>1.030963593133319</v>
       </c>
       <c r="L18">
-        <v>0.986687941102753</v>
+        <v>1.030221487160043</v>
       </c>
       <c r="M18">
-        <v>0.9852856586347128</v>
+        <v>1.035792122899375</v>
       </c>
       <c r="N18">
-        <v>0.99979051975749</v>
+        <v>1.013612104409864</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9629799313157928</v>
+        <v>1.02319237386256</v>
       </c>
       <c r="D19">
-        <v>0.9901512888978705</v>
+        <v>1.027690127559844</v>
       </c>
       <c r="E19">
-        <v>0.9729465417059293</v>
+        <v>1.026969864064809</v>
       </c>
       <c r="F19">
-        <v>0.9716059199709854</v>
+        <v>1.032575498190441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03191661337441</v>
+        <v>1.031208547207957</v>
       </c>
       <c r="J19">
-        <v>0.9913750418634997</v>
+        <v>1.029353779419388</v>
       </c>
       <c r="K19">
-        <v>1.004076748015114</v>
+        <v>1.031028455840631</v>
       </c>
       <c r="L19">
-        <v>0.9871820331390276</v>
+        <v>1.030310704005317</v>
       </c>
       <c r="M19">
-        <v>0.9858661708041299</v>
+        <v>1.035896892284229</v>
       </c>
       <c r="N19">
-        <v>0.9999504891340597</v>
+        <v>1.013639722710427</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9601766469981485</v>
+        <v>1.022708172897072</v>
       </c>
       <c r="D20">
-        <v>0.9881009701999706</v>
+        <v>1.027334112529959</v>
       </c>
       <c r="E20">
-        <v>0.9703753993495906</v>
+        <v>1.026504524565891</v>
       </c>
       <c r="F20">
-        <v>0.9686374699044231</v>
+        <v>1.032040755525749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030944478157636</v>
+        <v>1.031081620206702</v>
       </c>
       <c r="J20">
-        <v>0.9893339640084299</v>
+        <v>1.028995132977254</v>
       </c>
       <c r="K20">
-        <v>1.00235632715471</v>
+        <v>1.030738208793672</v>
       </c>
       <c r="L20">
-        <v>0.9849599618294946</v>
+        <v>1.029911575782274</v>
       </c>
       <c r="M20">
-        <v>0.9832551585366235</v>
+        <v>1.035428186085338</v>
       </c>
       <c r="N20">
-        <v>0.9992309079263207</v>
+        <v>1.013516132851391</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9507727443294504</v>
+        <v>1.021131820748424</v>
       </c>
       <c r="D21">
-        <v>0.9812319915326156</v>
+        <v>1.02617456690401</v>
       </c>
       <c r="E21">
-        <v>0.9617633153377276</v>
+        <v>1.024990072415297</v>
       </c>
       <c r="F21">
-        <v>0.95868349392968</v>
+        <v>1.030300179791851</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027663192058977</v>
+        <v>1.03066567007457</v>
       </c>
       <c r="J21">
-        <v>0.9824832364190693</v>
+        <v>1.027826502593365</v>
       </c>
       <c r="K21">
-        <v>0.9965778721168403</v>
+        <v>1.029791659321917</v>
       </c>
       <c r="L21">
-        <v>0.9775072021515645</v>
+        <v>1.028611672858923</v>
       </c>
       <c r="M21">
-        <v>0.9744923037245742</v>
+        <v>1.033901660343196</v>
       </c>
       <c r="N21">
-        <v>0.9968148389413245</v>
+        <v>1.013113017866103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9446179931234464</v>
+        <v>1.020139004448376</v>
       </c>
       <c r="D22">
-        <v>0.9767445384080053</v>
+        <v>1.02544387672295</v>
       </c>
       <c r="E22">
-        <v>0.9561377093905907</v>
+        <v>1.024036624976011</v>
       </c>
       <c r="F22">
-        <v>0.9521717344072157</v>
+        <v>1.02920417467241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025500622172373</v>
+        <v>1.030401605847376</v>
       </c>
       <c r="J22">
-        <v>0.9779972318398059</v>
+        <v>1.027089689373579</v>
       </c>
       <c r="K22">
-        <v>0.9927912094718381</v>
+        <v>1.029194259381184</v>
       </c>
       <c r="L22">
-        <v>0.9726312119688888</v>
+        <v>1.027792580023609</v>
       </c>
       <c r="M22">
-        <v>0.9687541940192911</v>
+        <v>1.032939750514223</v>
       </c>
       <c r="N22">
-        <v>0.9952322738468726</v>
+        <v>1.012858548215208</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9479050632215279</v>
+        <v>1.020665478957207</v>
       </c>
       <c r="D23">
-        <v>0.9791403010083424</v>
+        <v>1.025831386173608</v>
       </c>
       <c r="E23">
-        <v>0.959141103746011</v>
+        <v>1.024542186297556</v>
       </c>
       <c r="F23">
-        <v>0.9556491962809274</v>
+        <v>1.029785345731841</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026656950831141</v>
+        <v>1.030541832807074</v>
       </c>
       <c r="J23">
-        <v>0.9803932461525866</v>
+        <v>1.027480484054002</v>
       </c>
       <c r="K23">
-        <v>0.9948139427201972</v>
+        <v>1.029511168693153</v>
       </c>
       <c r="L23">
-        <v>0.9752351233357326</v>
+        <v>1.028226968499116</v>
       </c>
       <c r="M23">
-        <v>0.9718190121475117</v>
+        <v>1.033449880916403</v>
       </c>
       <c r="N23">
-        <v>0.996077567371865</v>
+        <v>1.012993544230197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9603304877476325</v>
+        <v>1.022734572382046</v>
       </c>
       <c r="D24">
-        <v>0.9882134586734604</v>
+        <v>1.027353525039497</v>
       </c>
       <c r="E24">
-        <v>0.9705164539811052</v>
+        <v>1.026529893833936</v>
       </c>
       <c r="F24">
-        <v>0.9688003598292173</v>
+        <v>1.032069909426837</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030997903562691</v>
+        <v>1.031088550780682</v>
       </c>
       <c r="J24">
-        <v>0.9894459909677273</v>
+        <v>1.02901469089737</v>
       </c>
       <c r="K24">
-        <v>1.002450769861716</v>
+        <v>1.030754039717083</v>
       </c>
       <c r="L24">
-        <v>0.9850819027012717</v>
+        <v>1.029933338885917</v>
       </c>
       <c r="M24">
-        <v>0.9833984625433351</v>
+        <v>1.035453743093601</v>
       </c>
       <c r="N24">
-        <v>0.999270406550723</v>
+        <v>1.013522874051507</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.973817576243351</v>
+        <v>1.02512848783676</v>
       </c>
       <c r="D25">
-        <v>0.9980881238984901</v>
+        <v>1.029112901643891</v>
       </c>
       <c r="E25">
-        <v>0.9829036112289298</v>
+        <v>1.028831287747729</v>
       </c>
       <c r="F25">
-        <v>0.983087919533067</v>
+        <v>1.034714186596857</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035645045489408</v>
+        <v>1.031712003397788</v>
       </c>
       <c r="J25">
-        <v>0.9992593936859639</v>
+        <v>1.03078631423571</v>
       </c>
       <c r="K25">
-        <v>1.010716191960589</v>
+        <v>1.032186595948527</v>
       </c>
       <c r="L25">
-        <v>0.9957732540338888</v>
+        <v>1.031905879980155</v>
       </c>
       <c r="M25">
-        <v>0.9959545726749777</v>
+        <v>1.037770132197861</v>
       </c>
       <c r="N25">
-        <v>1.002728511885609</v>
+        <v>1.014132771245051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027032374748685</v>
+        <v>0.9839364968713624</v>
       </c>
       <c r="D2">
-        <v>1.030510707607442</v>
+        <v>1.005510934620556</v>
       </c>
       <c r="E2">
-        <v>1.030662890396634</v>
+        <v>0.9922248036712611</v>
       </c>
       <c r="F2">
-        <v>1.036818059722732</v>
+        <v>0.9938179111719656</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032200491400207</v>
+        <v>1.039076663969182</v>
       </c>
       <c r="J2">
-        <v>1.032192506076122</v>
+        <v>1.006608514672703</v>
       </c>
       <c r="K2">
-        <v>1.033321508912322</v>
+        <v>1.016894023597988</v>
       </c>
       <c r="L2">
-        <v>1.033473251036849</v>
+        <v>1.003793532764069</v>
       </c>
       <c r="M2">
-        <v>1.039610715061926</v>
+        <v>1.005364049541671</v>
       </c>
       <c r="N2">
-        <v>1.014615771517216</v>
+        <v>1.005314782498088</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028411716140358</v>
+        <v>0.9909603552282755</v>
       </c>
       <c r="D3">
-        <v>1.031522547782159</v>
+        <v>1.010668653557822</v>
       </c>
       <c r="E3">
-        <v>1.031990603606696</v>
+        <v>0.9987090488071789</v>
       </c>
       <c r="F3">
-        <v>1.03834280176057</v>
+        <v>1.001272125227884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032550126842537</v>
+        <v>1.041425400392793</v>
       </c>
       <c r="J3">
-        <v>1.033209651014153</v>
+        <v>1.01170052070694</v>
       </c>
       <c r="K3">
-        <v>1.034141172593327</v>
+        <v>1.021166822882352</v>
       </c>
       <c r="L3">
-        <v>1.034607972194407</v>
+        <v>1.009358474287745</v>
       </c>
       <c r="M3">
-        <v>1.040943242613162</v>
+        <v>1.011888754810855</v>
       </c>
       <c r="N3">
-        <v>1.014964502449705</v>
+        <v>1.007104276393533</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029302875941649</v>
+        <v>0.9953689792584901</v>
       </c>
       <c r="D4">
-        <v>1.032175871949847</v>
+        <v>1.013907588355481</v>
       </c>
       <c r="E4">
-        <v>1.032848746489432</v>
+        <v>1.002784996238038</v>
       </c>
       <c r="F4">
-        <v>1.0393281412644</v>
+        <v>1.005953763659351</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032774040350305</v>
+        <v>1.04288377548534</v>
       </c>
       <c r="J4">
-        <v>1.033866050625694</v>
+        <v>1.014891893478582</v>
       </c>
       <c r="K4">
-        <v>1.034669546099249</v>
+        <v>1.023841009524717</v>
       </c>
       <c r="L4">
-        <v>1.035340706593121</v>
+        <v>1.012849924622432</v>
       </c>
       <c r="M4">
-        <v>1.041803718468103</v>
+        <v>1.015980859198824</v>
       </c>
       <c r="N4">
-        <v>1.015189253489353</v>
+        <v>1.008224546336301</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029677198577296</v>
+        <v>0.99719153461725</v>
       </c>
       <c r="D5">
-        <v>1.032450196806962</v>
+        <v>1.015246859609602</v>
       </c>
       <c r="E5">
-        <v>1.033209281246208</v>
+        <v>1.004471396770537</v>
       </c>
       <c r="F5">
-        <v>1.039742080887668</v>
+        <v>1.007889884093952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032867618955144</v>
+        <v>1.043482808837453</v>
       </c>
       <c r="J5">
-        <v>1.034141583755264</v>
+        <v>1.016210043041165</v>
       </c>
       <c r="K5">
-        <v>1.034891197992805</v>
+        <v>1.024944610634278</v>
       </c>
       <c r="L5">
-        <v>1.03564839228731</v>
+        <v>1.014292900180444</v>
       </c>
       <c r="M5">
-        <v>1.042165047789203</v>
+        <v>1.017671773415939</v>
       </c>
       <c r="N5">
-        <v>1.015283524492885</v>
+        <v>1.008686929868272</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029740030352725</v>
+        <v>0.9974957912315686</v>
       </c>
       <c r="D6">
-        <v>1.032496237754067</v>
+        <v>1.015470449846538</v>
       </c>
       <c r="E6">
-        <v>1.033269803369626</v>
+        <v>1.004753002789483</v>
       </c>
       <c r="F6">
-        <v>1.039811565954142</v>
+        <v>1.008213140440896</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032883298740819</v>
+        <v>1.043582581739933</v>
       </c>
       <c r="J6">
-        <v>1.0341878226376</v>
+        <v>1.016430022974287</v>
       </c>
       <c r="K6">
-        <v>1.034928386486132</v>
+        <v>1.025128729826563</v>
       </c>
       <c r="L6">
-        <v>1.035700033338461</v>
+        <v>1.01453376380979</v>
       </c>
       <c r="M6">
-        <v>1.04222569243398</v>
+        <v>1.017954006968472</v>
       </c>
       <c r="N6">
-        <v>1.015299340481477</v>
+        <v>1.008764075098328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029307878912507</v>
+        <v>0.9953934512099806</v>
       </c>
       <c r="D7">
-        <v>1.032179538794666</v>
+        <v>1.01392557018321</v>
       </c>
       <c r="E7">
-        <v>1.032853564863924</v>
+        <v>1.002807634641434</v>
       </c>
       <c r="F7">
-        <v>1.039333673504584</v>
+        <v>1.005979757708046</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03277529292941</v>
+        <v>1.042891834272599</v>
       </c>
       <c r="J7">
-        <v>1.033869733947049</v>
+        <v>1.014909597403989</v>
       </c>
       <c r="K7">
-        <v>1.03467250969021</v>
+        <v>1.023855835605395</v>
       </c>
       <c r="L7">
-        <v>1.035344819296848</v>
+        <v>1.012869301570063</v>
       </c>
       <c r="M7">
-        <v>1.041808548190026</v>
+        <v>1.01600356671724</v>
       </c>
       <c r="N7">
-        <v>1.015190513983552</v>
+        <v>1.008230757882841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027498816248034</v>
+        <v>0.9863395911326209</v>
       </c>
       <c r="D8">
-        <v>1.030852956583146</v>
+        <v>1.007275145661918</v>
       </c>
       <c r="E8">
-        <v>1.031111802607375</v>
+        <v>0.9944419639639567</v>
       </c>
       <c r="F8">
-        <v>1.037333620775637</v>
+        <v>0.9963676359509096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032319134585849</v>
+        <v>1.039883546355655</v>
       </c>
       <c r="J8">
-        <v>1.03253662226804</v>
+        <v>1.008351612561632</v>
       </c>
       <c r="K8">
-        <v>1.03359893500338</v>
+        <v>1.018357464075328</v>
       </c>
       <c r="L8">
-        <v>1.033857050048845</v>
+        <v>1.00569775247856</v>
       </c>
       <c r="M8">
-        <v>1.040061416901018</v>
+        <v>1.007597035768579</v>
       </c>
       <c r="N8">
-        <v>1.014733814220308</v>
+        <v>1.005927620763127</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024300275656996</v>
+        <v>0.9692522400824239</v>
       </c>
       <c r="D9">
-        <v>1.028504436737592</v>
+        <v>0.9947428871531365</v>
       </c>
       <c r="E9">
-        <v>1.028034882009094</v>
+        <v>0.9787059347909608</v>
       </c>
       <c r="F9">
-        <v>1.033799223562198</v>
+        <v>0.9782499696044767</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031497447562037</v>
+        <v>1.0340805640353</v>
       </c>
       <c r="J9">
-        <v>1.030173824139596</v>
+        <v>0.9959395411297112</v>
       </c>
       <c r="K9">
-        <v>1.031691661461138</v>
+        <v>1.007921837102456</v>
       </c>
       <c r="L9">
-        <v>1.031223663848483</v>
+        <v>0.9921542071680687</v>
       </c>
       <c r="M9">
-        <v>1.036968997308809</v>
+        <v>0.9917060662700369</v>
       </c>
       <c r="N9">
-        <v>1.013922085096372</v>
+        <v>1.001559126430439</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022160304355713</v>
+        <v>0.9569574151609427</v>
       </c>
       <c r="D10">
-        <v>1.026931194708914</v>
+        <v>0.9857479038214652</v>
       </c>
       <c r="E10">
-        <v>1.025978084206201</v>
+        <v>0.9674249633580599</v>
       </c>
       <c r="F10">
-        <v>1.031435755634544</v>
+        <v>0.9652292620690299</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030937524353332</v>
+        <v>1.029824564720658</v>
       </c>
       <c r="J10">
-        <v>1.028589147148303</v>
+        <v>0.9869893461436023</v>
       </c>
       <c r="K10">
-        <v>1.030409511081577</v>
+        <v>1.000379342146169</v>
       </c>
       <c r="L10">
-        <v>1.029459876251819</v>
+        <v>0.9824083785057497</v>
       </c>
       <c r="M10">
-        <v>1.034897741372589</v>
+        <v>0.980256034007867</v>
       </c>
       <c r="N10">
-        <v>1.013376158829105</v>
+        <v>0.9984041538231696</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021231780648191</v>
+        <v>0.951382181400432</v>
       </c>
       <c r="D11">
-        <v>1.026248118883846</v>
+        <v>0.9816767021637972</v>
       </c>
       <c r="E11">
-        <v>1.025086084822186</v>
+        <v>0.9623208268863269</v>
       </c>
       <c r="F11">
-        <v>1.030410539283866</v>
+        <v>0.9593284046727151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03069216842604</v>
+        <v>1.027876717351797</v>
       </c>
       <c r="J11">
-        <v>1.027900653986625</v>
+        <v>0.9829273543093933</v>
       </c>
       <c r="K11">
-        <v>1.029851754805388</v>
+        <v>0.9969526441986428</v>
       </c>
       <c r="L11">
-        <v>1.028694125296</v>
+        <v>0.9779901051307159</v>
       </c>
       <c r="M11">
-        <v>1.033998488339301</v>
+        <v>0.9750603671955794</v>
       </c>
       <c r="N11">
-        <v>1.013138614152689</v>
+        <v>0.9969714984936473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020886592234334</v>
+        <v>0.9492698213558388</v>
       </c>
       <c r="D12">
-        <v>1.025994111417604</v>
+        <v>0.9801355754021762</v>
       </c>
       <c r="E12">
-        <v>1.024754540830575</v>
+        <v>0.9603888067274516</v>
       </c>
       <c r="F12">
-        <v>1.030029446259404</v>
+        <v>0.9570931872462313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030600593516523</v>
+        <v>1.027136136884641</v>
       </c>
       <c r="J12">
-        <v>1.027644563310645</v>
+        <v>0.9813879350747065</v>
       </c>
       <c r="K12">
-        <v>1.029644187882219</v>
+        <v>0.9956535050978869</v>
       </c>
       <c r="L12">
-        <v>1.028409382029356</v>
+        <v>0.9763163855883613</v>
       </c>
       <c r="M12">
-        <v>1.033664099542775</v>
+        <v>0.9730913176184842</v>
       </c>
       <c r="N12">
-        <v>1.013050204161133</v>
+        <v>0.9964284650307235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020960649719135</v>
+        <v>0.9497248710500786</v>
       </c>
       <c r="D13">
-        <v>1.026048609746468</v>
+        <v>0.9804675023975709</v>
       </c>
       <c r="E13">
-        <v>1.024825668008498</v>
+        <v>0.9608049212452267</v>
       </c>
       <c r="F13">
-        <v>1.030111204909697</v>
+        <v>0.9575746801882695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03062025653863</v>
+        <v>1.027295788697823</v>
       </c>
       <c r="J13">
-        <v>1.027699511722198</v>
+        <v>0.9817195765993456</v>
       </c>
       <c r="K13">
-        <v>1.029688729473152</v>
+        <v>0.995933403322745</v>
       </c>
       <c r="L13">
-        <v>1.028470474516709</v>
+        <v>0.9766769271364167</v>
       </c>
       <c r="M13">
-        <v>1.033735843770758</v>
+        <v>0.9735155171757441</v>
       </c>
       <c r="N13">
-        <v>1.013069176367132</v>
+        <v>0.996545455484357</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021203253295035</v>
+        <v>0.9512084421402381</v>
       </c>
       <c r="D14">
-        <v>1.026227128340455</v>
+        <v>0.9815499168074693</v>
       </c>
       <c r="E14">
-        <v>1.025058683730599</v>
+        <v>0.9621618820121141</v>
       </c>
       <c r="F14">
-        <v>1.030379043819464</v>
+        <v>0.9591445501765475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03068460777997</v>
+        <v>1.027815856912011</v>
       </c>
       <c r="J14">
-        <v>1.027879492697848</v>
+        <v>0.9828007462154468</v>
       </c>
       <c r="K14">
-        <v>1.029834605268322</v>
+        <v>0.9968458072114877</v>
       </c>
       <c r="L14">
-        <v>1.028670594671951</v>
+        <v>0.9778524369561977</v>
       </c>
       <c r="M14">
-        <v>1.033970855172268</v>
+        <v>0.9748984250534879</v>
       </c>
       <c r="N14">
-        <v>1.013131309742169</v>
+        <v>0.9969268387018936</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021352690262525</v>
+        <v>0.9521169053080453</v>
       </c>
       <c r="D15">
-        <v>1.026337081943357</v>
+        <v>0.9822129207939566</v>
       </c>
       <c r="E15">
-        <v>1.025202223628722</v>
+        <v>0.9629930630069081</v>
       </c>
       <c r="F15">
-        <v>1.030544030578657</v>
+        <v>0.9601059256343392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030724198490659</v>
+        <v>1.028133985478403</v>
       </c>
       <c r="J15">
-        <v>1.027990337889125</v>
+        <v>0.9834627502194438</v>
       </c>
       <c r="K15">
-        <v>1.029924432165906</v>
+        <v>0.9974044133940783</v>
       </c>
       <c r="L15">
-        <v>1.028793854146496</v>
+        <v>0.9785723009312174</v>
       </c>
       <c r="M15">
-        <v>1.034115604696799</v>
+        <v>0.975745182226102</v>
       </c>
       <c r="N15">
-        <v>1.013169568879321</v>
+        <v>0.9971603510813843</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022221886694671</v>
+        <v>0.957321822902129</v>
       </c>
       <c r="D16">
-        <v>1.026976488806449</v>
+        <v>0.986014182542239</v>
       </c>
       <c r="E16">
-        <v>1.026037253377013</v>
+        <v>0.9677588257177728</v>
       </c>
       <c r="F16">
-        <v>1.031503756797426</v>
+        <v>0.9656150250858785</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030953746409107</v>
+        <v>1.02995151881137</v>
       </c>
       <c r="J16">
-        <v>1.028634790877418</v>
+        <v>0.9872547840667167</v>
       </c>
       <c r="K16">
-        <v>1.03044647287549</v>
+        <v>1.000603196033963</v>
       </c>
       <c r="L16">
-        <v>1.029510653574986</v>
+        <v>0.9826971977871217</v>
       </c>
       <c r="M16">
-        <v>1.034957370911494</v>
+        <v>0.9805955621061104</v>
       </c>
       <c r="N16">
-        <v>1.013391899399435</v>
+        <v>0.9984977597078278</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022766596074864</v>
+        <v>0.9605169469060447</v>
       </c>
       <c r="D17">
-        <v>1.027377072935709</v>
+        <v>0.9883498025594795</v>
       </c>
       <c r="E17">
-        <v>1.026560668116827</v>
+        <v>0.9706874232479251</v>
       </c>
       <c r="F17">
-        <v>1.032105274528832</v>
+        <v>0.9689977891247173</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031096956272736</v>
+        <v>1.031062644973293</v>
       </c>
       <c r="J17">
-        <v>1.029038414882822</v>
+        <v>0.9895817684003667</v>
       </c>
       <c r="K17">
-        <v>1.030773242349507</v>
+        <v>1.00256523271777</v>
       </c>
       <c r="L17">
-        <v>1.029959738153864</v>
+        <v>0.9852296989646018</v>
       </c>
       <c r="M17">
-        <v>1.035484744467644</v>
+        <v>0.9835721486002247</v>
       </c>
       <c r="N17">
-        <v>1.013531050970865</v>
+        <v>0.9993182786191647</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023084132841683</v>
+        <v>0.9623566168077637</v>
       </c>
       <c r="D18">
-        <v>1.027610548531292</v>
+        <v>0.9896952970306595</v>
       </c>
       <c r="E18">
-        <v>1.026865833180001</v>
+        <v>0.9723746893969583</v>
       </c>
       <c r="F18">
-        <v>1.032455954717001</v>
+        <v>0.9709458303450158</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031180207981838</v>
+        <v>1.031700713601605</v>
       </c>
       <c r="J18">
-        <v>1.029273618697437</v>
+        <v>0.9909212570384855</v>
       </c>
       <c r="K18">
-        <v>1.030963593133319</v>
+        <v>1.003694305787488</v>
       </c>
       <c r="L18">
-        <v>1.030221487160043</v>
+        <v>0.9866879411027534</v>
       </c>
       <c r="M18">
-        <v>1.035792122899375</v>
+        <v>0.9852856586347133</v>
       </c>
       <c r="N18">
-        <v>1.013612104409864</v>
+        <v>0.9997905197574901</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02319237386256</v>
+        <v>0.9629799313157912</v>
       </c>
       <c r="D19">
-        <v>1.027690127559844</v>
+        <v>0.9901512888978692</v>
       </c>
       <c r="E19">
-        <v>1.026969864064809</v>
+        <v>0.9729465417059272</v>
       </c>
       <c r="F19">
-        <v>1.032575498190441</v>
+        <v>0.9716059199709836</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031208547207957</v>
+        <v>1.031916613374409</v>
       </c>
       <c r="J19">
-        <v>1.029353779419388</v>
+        <v>0.991375041863498</v>
       </c>
       <c r="K19">
-        <v>1.031028455840631</v>
+        <v>1.004076748015113</v>
       </c>
       <c r="L19">
-        <v>1.030310704005317</v>
+        <v>0.9871820331390253</v>
       </c>
       <c r="M19">
-        <v>1.035896892284229</v>
+        <v>0.985866170804128</v>
       </c>
       <c r="N19">
-        <v>1.013639722710427</v>
+        <v>0.9999504891340589</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022708172897072</v>
+        <v>0.96017664699815</v>
       </c>
       <c r="D20">
-        <v>1.027334112529959</v>
+        <v>0.9881009701999718</v>
       </c>
       <c r="E20">
-        <v>1.026504524565891</v>
+        <v>0.9703753993495918</v>
       </c>
       <c r="F20">
-        <v>1.032040755525749</v>
+        <v>0.9686374699044242</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031081620206702</v>
+        <v>1.030944478157637</v>
       </c>
       <c r="J20">
-        <v>1.028995132977254</v>
+        <v>0.989333964008431</v>
       </c>
       <c r="K20">
-        <v>1.030738208793672</v>
+        <v>1.002356327154711</v>
       </c>
       <c r="L20">
-        <v>1.029911575782274</v>
+        <v>0.9849599618294962</v>
       </c>
       <c r="M20">
-        <v>1.035428186085338</v>
+        <v>0.9832551585366247</v>
       </c>
       <c r="N20">
-        <v>1.013516132851391</v>
+        <v>0.9992309079263211</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021131820748424</v>
+        <v>0.9507727443294498</v>
       </c>
       <c r="D21">
-        <v>1.02617456690401</v>
+        <v>0.981231991532615</v>
       </c>
       <c r="E21">
-        <v>1.024990072415297</v>
+        <v>0.9617633153377267</v>
       </c>
       <c r="F21">
-        <v>1.030300179791851</v>
+        <v>0.9586834939296787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03066567007457</v>
+        <v>1.027663192058976</v>
       </c>
       <c r="J21">
-        <v>1.027826502593365</v>
+        <v>0.9824832364190685</v>
       </c>
       <c r="K21">
-        <v>1.029791659321917</v>
+        <v>0.9965778721168398</v>
       </c>
       <c r="L21">
-        <v>1.028611672858923</v>
+        <v>0.9775072021515638</v>
       </c>
       <c r="M21">
-        <v>1.033901660343196</v>
+        <v>0.9744923037245729</v>
       </c>
       <c r="N21">
-        <v>1.013113017866103</v>
+        <v>0.9968148389413241</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020139004448376</v>
+        <v>0.9446179931234471</v>
       </c>
       <c r="D22">
-        <v>1.02544387672295</v>
+        <v>0.9767445384080059</v>
       </c>
       <c r="E22">
-        <v>1.024036624976011</v>
+        <v>0.9561377093905916</v>
       </c>
       <c r="F22">
-        <v>1.02920417467241</v>
+        <v>0.9521717344072168</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030401605847376</v>
+        <v>1.025500622172373</v>
       </c>
       <c r="J22">
-        <v>1.027089689373579</v>
+        <v>0.9779972318398066</v>
       </c>
       <c r="K22">
-        <v>1.029194259381184</v>
+        <v>0.9927912094718385</v>
       </c>
       <c r="L22">
-        <v>1.027792580023609</v>
+        <v>0.9726312119688898</v>
       </c>
       <c r="M22">
-        <v>1.032939750514223</v>
+        <v>0.9687541940192923</v>
       </c>
       <c r="N22">
-        <v>1.012858548215208</v>
+        <v>0.9952322738468729</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020665478957207</v>
+        <v>0.9479050632215273</v>
       </c>
       <c r="D23">
-        <v>1.025831386173608</v>
+        <v>0.979140301008342</v>
       </c>
       <c r="E23">
-        <v>1.024542186297556</v>
+        <v>0.9591411037460105</v>
       </c>
       <c r="F23">
-        <v>1.029785345731841</v>
+        <v>0.9556491962809274</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030541832807074</v>
+        <v>1.026656950831141</v>
       </c>
       <c r="J23">
-        <v>1.027480484054002</v>
+        <v>0.9803932461525862</v>
       </c>
       <c r="K23">
-        <v>1.029511168693153</v>
+        <v>0.9948139427201969</v>
       </c>
       <c r="L23">
-        <v>1.028226968499116</v>
+        <v>0.9752351233357321</v>
       </c>
       <c r="M23">
-        <v>1.033449880916403</v>
+        <v>0.9718190121475115</v>
       </c>
       <c r="N23">
-        <v>1.012993544230197</v>
+        <v>0.996077567371865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022734572382046</v>
+        <v>0.9603304877476312</v>
       </c>
       <c r="D24">
-        <v>1.027353525039497</v>
+        <v>0.9882134586734587</v>
       </c>
       <c r="E24">
-        <v>1.026529893833936</v>
+        <v>0.9705164539811036</v>
       </c>
       <c r="F24">
-        <v>1.032069909426837</v>
+        <v>0.9688003598292155</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031088550780682</v>
+        <v>1.03099790356269</v>
       </c>
       <c r="J24">
-        <v>1.02901469089737</v>
+        <v>0.9894459909677259</v>
       </c>
       <c r="K24">
-        <v>1.030754039717083</v>
+        <v>1.002450769861715</v>
       </c>
       <c r="L24">
-        <v>1.029933338885917</v>
+        <v>0.9850819027012704</v>
       </c>
       <c r="M24">
-        <v>1.035453743093601</v>
+        <v>0.9833984625433336</v>
       </c>
       <c r="N24">
-        <v>1.013522874051507</v>
+        <v>0.9992704065507225</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02512848783676</v>
+        <v>0.9738175762433493</v>
       </c>
       <c r="D25">
-        <v>1.029112901643891</v>
+        <v>0.9980881238984892</v>
       </c>
       <c r="E25">
-        <v>1.028831287747729</v>
+        <v>0.9829036112289279</v>
       </c>
       <c r="F25">
-        <v>1.034714186596857</v>
+        <v>0.9830879195330656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031712003397788</v>
+        <v>1.035645045489407</v>
       </c>
       <c r="J25">
-        <v>1.03078631423571</v>
+        <v>0.9992593936859625</v>
       </c>
       <c r="K25">
-        <v>1.032186595948527</v>
+        <v>1.010716191960588</v>
       </c>
       <c r="L25">
-        <v>1.031905879980155</v>
+        <v>0.9957732540338871</v>
       </c>
       <c r="M25">
-        <v>1.037770132197861</v>
+        <v>0.9959545726749761</v>
       </c>
       <c r="N25">
-        <v>1.014132771245051</v>
+        <v>1.002728511885609</v>
       </c>
     </row>
   </sheetData>
